--- a/asset/Documents/Exastro-ITA_[Reference]Server_link_Backup_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Server_link_Backup_list.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BCX3\Desktop\mail\Translation folder\Translation Documents\Documents ENG\Finished\1.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="サーバ連携_バックアップ対象一覧" sheetId="1" r:id="rId1"/>
@@ -2395,23 +2390,23 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="3.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" style="2" customWidth="1"/>
+    <col min="6" max="9" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
@@ -2430,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="21"/>
@@ -2445,7 +2440,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="s">
         <v>61</v>
@@ -2462,7 +2457,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
@@ -2479,7 +2474,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -2496,7 +2491,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="21"/>
@@ -2511,7 +2506,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="30" t="s">
         <v>21</v>
@@ -2538,7 +2533,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="31"/>
       <c r="C8" s="33"/>
@@ -2569,7 +2564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="13">
         <v>1</v>
@@ -2606,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="13">
         <v>2</v>
@@ -2643,7 +2638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="13">
         <v>3</v>
@@ -2680,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="13">
         <v>4</v>
@@ -2713,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="13">
         <v>5</v>
@@ -2748,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="13">
         <v>6</v>
@@ -2783,7 +2778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="13">
         <v>7</v>
@@ -2818,7 +2813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="13">
         <v>8</v>
@@ -2853,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="13">
         <v>9</v>
@@ -2888,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="13">
         <v>10</v>
@@ -2923,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="13">
         <v>11</v>
@@ -2958,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="13">
         <v>12</v>
